--- a/CurrentWork_Delta/JS_FrameAsPackage_v1.xlsx
+++ b/CurrentWork_Delta/JS_FrameAsPackage_v1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="16755" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="16755" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="V1" sheetId="1" r:id="rId1"/>
+    <sheet name="V2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>Title / Name of task</t>
   </si>
@@ -162,9 +163,6 @@
     </r>
   </si>
   <si>
-    <t>/===============================================================================================================================================</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Jasmine</t>
   </si>
   <si>
@@ -220,6 +218,21 @@
   </si>
   <si>
     <t>Packaging(not node moduld )the upper level Project , deploy and test</t>
+  </si>
+  <si>
+    <t>Dependency ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         '/===============================================================================================================================================</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TEST</t>
+  </si>
+  <si>
+    <t>8/26+/2020</t>
   </si>
 </sst>
 </file>
@@ -243,12 +256,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -263,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -295,6 +314,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I251"/>
+  <dimension ref="B1:J251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +673,7 @@
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
@@ -647,14 +692,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
@@ -664,7 +709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
@@ -674,7 +719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
@@ -684,7 +729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -694,7 +739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
@@ -704,7 +749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
@@ -714,23 +759,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
@@ -741,14 +786,17 @@
         <v>24</v>
       </c>
       <c r="F12" s="9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I12" s="2">
         <f>F12</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -759,41 +807,45 @@
         <v>24</v>
       </c>
       <c r="F13" s="9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I13" s="2">
         <f>I12+F13</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
+    <row r="16" spans="3:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="9">
-        <v>3</v>
-      </c>
-      <c r="I17" s="2">
-        <v>9</v>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -811,17 +863,18 @@
         <v>3</v>
       </c>
       <c r="I19" s="2">
-        <v>12</v>
+        <f>I13+F19</f>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
@@ -829,58 +882,59 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2">
-        <v>15</v>
+        <f>I19+F22</f>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -894,14 +948,14 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -924,10 +978,11 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" s="2">
-        <v>18</v>
+        <f>I22+F35</f>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
@@ -981,7 +1036,7 @@
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -989,7 +1044,8 @@
         <v>3</v>
       </c>
       <c r="I43" s="2">
-        <v>21</v>
+        <f>I35+F43</f>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
@@ -1008,45 +1064,45 @@
       <c r="C47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="D47" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>28</v>
@@ -1057,21 +1113,21 @@
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1863,4 +1919,300 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="66.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="20">
+        <v>44064</v>
+      </c>
+      <c r="I11">
+        <f>F11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="10">
+        <v>2</v>
+      </c>
+      <c r="G13" s="20">
+        <v>44068</v>
+      </c>
+      <c r="I13">
+        <f>F13+I11</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16">
+        <f>F16+I13</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="G17" s="20">
+        <v>44071</v>
+      </c>
+      <c r="I17">
+        <f>F17+I16</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="10">
+        <v>3</v>
+      </c>
+      <c r="G21" s="20">
+        <v>44076</v>
+      </c>
+      <c r="I21">
+        <f>F21+I17</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="18">
+        <v>3</v>
+      </c>
+      <c r="G25" s="20">
+        <v>44083</v>
+      </c>
+      <c r="I25">
+        <f>F25+I21</f>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>